--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail9 Features.xlsx
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,29 +894,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -937,115 +935,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1062,72 +1050,66 @@
         <v>1.355953061717683e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.7399836214798543</v>
+        <v>6.299940835540651e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.1667703715501245</v>
+        <v>2.356484796787377e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.299940835540651e-07</v>
+        <v>0.07747437420923034</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.356484796787377e-06</v>
+        <v>0.1506643670744852</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07747437420923034</v>
+        <v>0.02866843037678589</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1506643670744852</v>
+        <v>1.848395661020173</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02866843037678589</v>
+        <v>1.46811505795108</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.818631943935332</v>
+        <v>3.30363701250865</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.46811505795108</v>
+        <v>5.250401169090993e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.30363701250865</v>
+        <v>31768552.09819423</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.250401169090993e-15</v>
+        <v>3.707160070527045e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>31768552.09819423</v>
+        <v>5.29891961393774</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.707160070527045e-06</v>
+        <v>0.0002568620093853133</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.29891961393774</v>
+        <v>14.22155170288459</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002568620093853133</v>
+        <v>0.9584711123206046</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>14.22155170288459</v>
+        <v>0.05195099198799138</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.9584711123206046</v>
+        <v>1.86967329617251</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.05195099198799138</v>
+        <v>0.956144399834608</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>1.86967329617251</v>
+        <v>1.490905051854435</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.956144399834608</v>
+        <v>13</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.490905051854435</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1639008428080946</v>
       </c>
     </row>
@@ -1142,72 +1124,66 @@
         <v>1.397950703946311e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3909365061077728</v>
+        <v>7.342032631821148e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.4282644585634054</v>
+        <v>2.367833422338398e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.342032631821148e-07</v>
+        <v>0.08757653935121704</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.367833422338398e-06</v>
+        <v>0.1710153475154593</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08757653935121704</v>
+        <v>0.03687440169508907</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1710153475154593</v>
+        <v>1.715195817291717</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03687440169508907</v>
+        <v>1.488498496499531</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.678633797031947</v>
+        <v>3.222949224112041</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.488498496499531</v>
+        <v>5.494375704446113e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.222949224112041</v>
+        <v>33637214.78634915</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.494375704446113e-15</v>
+        <v>3.164072505324137e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>33637214.78634915</v>
+        <v>6.216678524281053</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.164072505324137e-06</v>
+        <v>0.0002471476226595862</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.216678524281053</v>
+        <v>13.76618932853951</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002471476226595862</v>
+        <v>0.982366547382219</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.76618932853951</v>
+        <v>0.04683644392175298</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.982366547382219</v>
+        <v>1.988456250048394</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04683644392175298</v>
+        <v>0.951924679418083</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>1.988456250048394</v>
+        <v>1.577752609750895</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.951924679418083</v>
+        <v>14</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.577752609750895</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1582983051360323</v>
       </c>
     </row>
@@ -1222,72 +1198,66 @@
         <v>1.485108220934249e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1597282109260282</v>
+        <v>8.355895537113076e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.449569838512785</v>
+        <v>2.380939384847954e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.355895537113076e-07</v>
+        <v>0.09380869286251314</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.380939384847954e-06</v>
+        <v>0.1804639463234372</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.09380869286251314</v>
+        <v>0.04133926337760985</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1804639463234372</v>
+        <v>1.614910004505578</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04133926337760985</v>
+        <v>1.502747272420857</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.562856715936978</v>
+        <v>4.49037124053453</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.502747272420857</v>
+        <v>8.261189879916556e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.49037124053453</v>
+        <v>24375652.69255571</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.261189879916556e-15</v>
+        <v>4.085951104491248e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>24375652.69255571</v>
+        <v>4.908571382852002</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.085951104491248e-06</v>
+        <v>0.0002752730485050173</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4.908571382852002</v>
+        <v>10.64403689091101</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002752730485050173</v>
+        <v>1.503609552793825</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.64403689091101</v>
+        <v>0.03118720353987121</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.503609552793825</v>
+        <v>2.349586024262535</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03118720353987121</v>
+        <v>0.9450368248956825</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.349586024262535</v>
+        <v>1.853519325369219</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9450368248956825</v>
+        <v>12</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.853519325369219</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1290309969778682</v>
       </c>
     </row>
@@ -1302,72 +1272,66 @@
         <v>1.612652558571455e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7415569507806139</v>
+        <v>9.185847225263143e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.536321620066515</v>
+        <v>2.395579910404482e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.185847225263143e-07</v>
+        <v>0.09496071063885735</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.395579910404482e-06</v>
+        <v>0.1771463152213861</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.09496071063885735</v>
+        <v>0.04038138531478876</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1771463152213861</v>
+        <v>1.590960991320555</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04038138531478876</v>
+        <v>1.517110598501839</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.536153263260778</v>
+        <v>3.918319279413786</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.517110598501839</v>
+        <v>1.089304619363082e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.918319279413786</v>
+        <v>18539507.59054576</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.089304619363082e-14</v>
+        <v>5.295127976942496e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>18539507.59054576</v>
+        <v>3.744085308504267</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.295127976942496e-06</v>
+        <v>0.000240648407730361</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.744085308504267</v>
+        <v>10.08113340743891</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000240648407730361</v>
+        <v>1.601471489926109</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.08113340743891</v>
+        <v>0.02445691737869501</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.601471489926109</v>
+        <v>2.677809158755419</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02445691737869501</v>
+        <v>0.9443017861747521</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.677809158755419</v>
+        <v>1.797761764387161</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9443017861747521</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.797761764387161</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1309233725481985</v>
       </c>
     </row>
@@ -1382,72 +1346,66 @@
         <v>1.768031082614983e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.205745491585694</v>
+        <v>9.815342881874566e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3.261887975199757</v>
+        <v>2.411454639469063e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.815342881874566e-07</v>
+        <v>0.0925374356419143</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.411454639469063e-06</v>
+        <v>0.1667121878373103</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0925374356419143</v>
+        <v>0.03635077048182093</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1667121878373103</v>
+        <v>1.511240023988329</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03635077048182093</v>
+        <v>1.373923513652147</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.451538297489932</v>
+        <v>4.435595508835385</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.373923513652147</v>
+        <v>1.928039717892226e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.435595508835385</v>
+        <v>11273493.86088771</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.928039717892226e-14</v>
+        <v>8.171058455494623e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>11273493.86088771</v>
+        <v>2.450377756800867</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.171058455494623e-06</v>
+        <v>0.000190649845774538</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2.450377756800867</v>
+        <v>10.37012286272773</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000190649845774538</v>
+        <v>1.37894549976504</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.37012286272773</v>
+        <v>0.02050237921173417</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.37894549976504</v>
+        <v>2.83812466277658</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02050237921173417</v>
+        <v>0.9356819737999814</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.83812466277658</v>
+        <v>1.847728244069688</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9356819737999814</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.847728244069688</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1406247826061837</v>
       </c>
     </row>
@@ -1462,72 +1420,66 @@
         <v>1.930405366673218e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.492013727995792</v>
+        <v>1.010010649767804e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.430223091371365</v>
+        <v>2.428099610215321e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.010010649767804e-06</v>
+        <v>0.08719962155180312</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.428099610215321e-06</v>
+        <v>0.1532908985195683</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.08719962155180312</v>
+        <v>0.03110211336127328</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1532908985195683</v>
+        <v>1.495974959347719</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03110211336127328</v>
+        <v>1.370832210415066</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.434690477069485</v>
+        <v>3.626720952409783</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.370832210415066</v>
+        <v>2.93724649106789e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.626720952409783</v>
+        <v>7629374.227261875</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.93724649106789e-14</v>
+        <v>1.199360166783341e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7629374.227261875</v>
+        <v>1.709693377716795</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.199360166783341e-05</v>
+        <v>0.0001759861372276077</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1.709693377716795</v>
+        <v>11.44461062382747</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001759861372276077</v>
+        <v>1.142412233298664</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.44461062382747</v>
+        <v>0.02305050803663795</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.142412233298664</v>
+        <v>2.767798955773682</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02305050803663795</v>
+        <v>0.9348300086531188</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.767798955773682</v>
+        <v>1.873673413871968</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9348300086531188</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.873673413871968</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1478011112829027</v>
       </c>
     </row>
@@ -1904,7 +1856,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.639827561724315</v>
+        <v>1.574713792051156</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.202297367548143</v>
@@ -1993,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.619431393336086</v>
+        <v>1.566167071682406</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.181696851345649</v>
@@ -2082,7 +2034,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.621130362838585</v>
+        <v>1.566750723410858</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.202554489798096</v>
@@ -2171,7 +2123,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.63654858699575</v>
+        <v>1.575045707783187</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.058778754193877</v>
@@ -2260,7 +2212,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.630970614998879</v>
+        <v>1.571525443131566</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.037200949600788</v>
@@ -2349,7 +2301,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.610768293424184</v>
+        <v>1.563231896914217</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.133935783108946</v>
@@ -2438,7 +2390,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.58912978122745</v>
+        <v>1.548590442805284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.993324334409511</v>
@@ -2527,7 +2479,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.586853694576005</v>
+        <v>1.549381540586228</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.865773762646731</v>
@@ -2616,7 +2568,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.589882020122114</v>
+        <v>1.550474450068233</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.000438025670667</v>
@@ -2705,7 +2657,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.587074551219082</v>
+        <v>1.542581493011856</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.98802822827327</v>
@@ -2794,7 +2746,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.604159278360787</v>
+        <v>1.554730657959621</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.954420949087716</v>
@@ -2883,7 +2835,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.603531413091669</v>
+        <v>1.557760400635489</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.860034797900574</v>
@@ -2972,7 +2924,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.610364686770385</v>
+        <v>1.557785520192794</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.667828314607907</v>
@@ -3061,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.619950935104596</v>
+        <v>1.561149635279351</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.887434979595709</v>
@@ -3150,7 +3102,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.630292815034667</v>
+        <v>1.577486594803861</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.723768178561522</v>
@@ -3239,7 +3191,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641632842438191</v>
+        <v>1.580560087192251</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.911610974455608</v>
@@ -3328,7 +3280,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663873164531</v>
+        <v>1.59436142664915</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.89554940304659</v>
@@ -3417,7 +3369,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.659609402205848</v>
+        <v>1.593117075601645</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.761285906621151</v>
@@ -3506,7 +3458,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.661185834240384</v>
+        <v>1.59767297773174</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.751811491181763</v>
@@ -3595,7 +3547,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.671730849639778</v>
+        <v>1.604192803296353</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.876764652626408</v>
@@ -3684,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.709989334069686</v>
+        <v>1.62466640483687</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.912858833399435</v>
@@ -3773,7 +3725,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.725624273802308</v>
+        <v>1.631319570627223</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.071251599604901</v>
@@ -3862,7 +3814,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.718754567454634</v>
+        <v>1.626096420616641</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.285354437675006</v>
@@ -3951,7 +3903,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.726582302149813</v>
+        <v>1.638009304077932</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.938561794400642</v>
@@ -4040,7 +3992,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.726540242160844</v>
+        <v>1.633835826382076</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.725206526531413</v>
@@ -4129,7 +4081,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.714801878725603</v>
+        <v>1.626082715029545</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.542325732260071</v>
@@ -4218,7 +4170,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.712409761568229</v>
+        <v>1.624272551970278</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.553782299252972</v>
@@ -4307,7 +4259,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.710626956211819</v>
+        <v>1.632280055774017</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.827754454011575</v>
@@ -4396,7 +4348,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.701936626501508</v>
+        <v>1.630048601515393</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.78288935199922</v>
@@ -4485,7 +4437,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.696726590045036</v>
+        <v>1.625454063606588</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.530000427216385</v>
@@ -4574,7 +4526,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.68752386835088</v>
+        <v>1.621297016687625</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.901948835120089</v>
@@ -4663,7 +4615,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.687438469728596</v>
+        <v>1.618898850353414</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.357937560153984</v>
@@ -4752,7 +4704,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.684575772845504</v>
+        <v>1.616432714953088</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.696808496565705</v>
@@ -4841,7 +4793,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.683726844224597</v>
+        <v>1.616574641906903</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.668345867494134</v>
@@ -4930,7 +4882,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.677104848805655</v>
+        <v>1.607104938176611</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.92886919990988</v>
@@ -5019,7 +4971,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.679479648278649</v>
+        <v>1.608737222820741</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.630141546163271</v>
@@ -5108,7 +5060,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.698914474693198</v>
+        <v>1.623858611339873</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.933886561518918</v>
@@ -5197,7 +5149,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.716096929739397</v>
+        <v>1.641311404363623</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.863111516613521</v>
@@ -5286,7 +5238,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.719241290013776</v>
+        <v>1.64500085223944</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.314856127123784</v>
@@ -5375,7 +5327,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.725343936645812</v>
+        <v>1.659427457587414</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.515557070014714</v>
@@ -5464,7 +5416,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.738406383534804</v>
+        <v>1.668072052948747</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.666912072244631</v>
@@ -5553,7 +5505,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.75148745918311</v>
+        <v>1.675686927283197</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.362642557673335</v>
@@ -5642,7 +5594,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.717872814073199</v>
+        <v>1.650260388344336</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.736970705422334</v>
@@ -5731,7 +5683,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.725927685993532</v>
+        <v>1.656136823742936</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.738826030769578</v>
@@ -5820,7 +5772,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.709361016724106</v>
+        <v>1.641077839409741</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.6822993669625</v>
@@ -5909,7 +5861,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.70664277108609</v>
+        <v>1.639430013850599</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.831991027084888</v>
@@ -5998,7 +5950,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.716334066717389</v>
+        <v>1.650813576347215</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.719688734253218</v>
@@ -6087,7 +6039,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.706965736329953</v>
+        <v>1.647531169831736</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.763441572888312</v>
@@ -6176,7 +6128,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.708486941452892</v>
+        <v>1.64972290058393</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.811986278768773</v>
@@ -6265,7 +6217,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.707486119508198</v>
+        <v>1.658755356707888</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.723723341285333</v>
@@ -6354,7 +6306,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.697334140636098</v>
+        <v>1.650226721407076</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.905639878469918</v>
@@ -6640,7 +6592,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.722290430093985</v>
+        <v>1.695971389599238</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.249950896707116</v>
@@ -6729,7 +6681,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.729442550889792</v>
+        <v>1.701027881455866</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.068365554210991</v>
@@ -6818,7 +6770,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.738713866913411</v>
+        <v>1.708185059219304</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.206753128853069</v>
@@ -6907,7 +6859,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.727063772851774</v>
+        <v>1.699314692062389</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.153904884682145</v>
@@ -6996,7 +6948,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.735035869387103</v>
+        <v>1.706510186568484</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.68620528707523</v>
@@ -7085,7 +7037,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.684791420136716</v>
+        <v>1.669565937551779</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.499397085860863</v>
@@ -7174,7 +7126,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.652012125928681</v>
+        <v>1.646897623036462</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.456415045083853</v>
@@ -7263,7 +7215,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.670627337334611</v>
+        <v>1.667146378228385</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.411707271550802</v>
@@ -7352,7 +7304,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.671026888607289</v>
+        <v>1.667316386192844</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.563720191540587</v>
@@ -7441,7 +7393,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.670940783297126</v>
+        <v>1.667146140744641</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.410548418488024</v>
@@ -7530,7 +7482,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.679998111098383</v>
+        <v>1.671482053475879</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.51558823154031</v>
@@ -7619,7 +7571,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.679636699320429</v>
+        <v>1.672773848351067</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.490350802340926</v>
@@ -7708,7 +7660,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.680007940831487</v>
+        <v>1.67240103108197</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.395308080978543</v>
@@ -7797,7 +7749,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.689319204053408</v>
+        <v>1.675332002412651</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.436986960262587</v>
@@ -7886,7 +7838,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.69330777305314</v>
+        <v>1.681455203980092</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.393289256417773</v>
@@ -7975,7 +7927,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.692043846711699</v>
+        <v>1.680420741047087</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.47427863177624</v>
@@ -8064,7 +8016,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.688364847900192</v>
+        <v>1.680786558336284</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.426281338938784</v>
@@ -8153,7 +8105,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.681572279614301</v>
+        <v>1.678367295939874</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.407170960192211</v>
@@ -8242,7 +8194,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.696519046714591</v>
+        <v>1.691991058011551</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.370580802001409</v>
@@ -8331,7 +8283,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.690222824320676</v>
+        <v>1.682880353196701</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.396095725874601</v>
@@ -8420,7 +8372,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.765305482245823</v>
+        <v>1.743278347370464</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.557884229199173</v>
@@ -8509,7 +8461,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.78175035999451</v>
+        <v>1.744899916049538</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.124105744217582</v>
@@ -8598,7 +8550,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.765251826567141</v>
+        <v>1.734592710872509</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.896692392241701</v>
@@ -8687,7 +8639,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.776053114111621</v>
+        <v>1.745528096844556</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.440693407819244</v>
@@ -8776,7 +8728,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.776680440327505</v>
+        <v>1.742986321295992</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.107758356661126</v>
@@ -8865,7 +8817,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.761405565902403</v>
+        <v>1.734257628459876</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.358153496685134</v>
@@ -8954,7 +8906,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.745625792048857</v>
+        <v>1.726736829209079</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.091611884382664</v>
@@ -9043,7 +8995,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.742710031400612</v>
+        <v>1.726153801106987</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.198271814429073</v>
@@ -9132,7 +9084,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.739074345128155</v>
+        <v>1.728739107194703</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.061187667327411</v>
@@ -9221,7 +9173,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.744612462256227</v>
+        <v>1.734302572222109</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.259788267782893</v>
@@ -9310,7 +9262,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.744987442277316</v>
+        <v>1.7327999960519</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.21249473934154</v>
@@ -9399,7 +9351,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.750991679719507</v>
+        <v>1.737707850067912</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.240294982883636</v>
@@ -9488,7 +9440,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.758316060089555</v>
+        <v>1.742184277142413</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.30738817563926</v>
@@ -9577,7 +9529,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.760799728738633</v>
+        <v>1.746589930673223</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.499383983943342</v>
@@ -9666,7 +9618,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.783529542955898</v>
+        <v>1.766256133492558</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.467673524245198</v>
@@ -9755,7 +9707,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.780347391345937</v>
+        <v>1.760689076978826</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.476664045743496</v>
@@ -9844,7 +9796,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.789346586908225</v>
+        <v>1.76727565579563</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.674312711657531</v>
@@ -9933,7 +9885,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.792713402224916</v>
+        <v>1.768818053217617</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.867804952564557</v>
@@ -10022,7 +9974,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.789978017458304</v>
+        <v>1.765712145475199</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.830072197416535</v>
@@ -10111,7 +10063,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.801089605281285</v>
+        <v>1.781436174353034</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.140270836690088</v>
@@ -10200,7 +10152,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.80971183251197</v>
+        <v>1.784259862771008</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.274160098186285</v>
@@ -10289,7 +10241,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.818697103811985</v>
+        <v>1.792444576836448</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.667976409361434</v>
@@ -10378,7 +10330,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.82212746596025</v>
+        <v>1.796278537255878</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.477537888031763</v>
@@ -10467,7 +10419,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.832018495554028</v>
+        <v>1.798528585273721</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.938531334978202</v>
@@ -10556,7 +10508,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.824033731462844</v>
+        <v>1.79296066154171</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.494572563315398</v>
@@ -10645,7 +10597,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.81112389780714</v>
+        <v>1.781159766662374</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.559278223718775</v>
@@ -10734,7 +10686,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.811739034093912</v>
+        <v>1.787994794667425</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.728681115181176</v>
@@ -10823,7 +10775,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.812558349805589</v>
+        <v>1.789039887646793</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.895881880594969</v>
@@ -10912,7 +10864,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.816474263450407</v>
+        <v>1.79454650990583</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.245916421352349</v>
@@ -11001,7 +10953,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.815256449443138</v>
+        <v>1.79522125516121</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.018684377891941</v>
@@ -11090,7 +11042,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.806872152278175</v>
+        <v>1.785367337856129</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.989852463246947</v>
@@ -11376,7 +11328,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.696706873916662</v>
+        <v>1.676022994095157</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.22751854365887</v>
@@ -11465,7 +11417,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.708696625847095</v>
+        <v>1.686426020073724</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.983570585898364</v>
@@ -11554,7 +11506,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.720478001442267</v>
+        <v>1.690636250943263</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.902958031306574</v>
@@ -11643,7 +11595,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.724764460617418</v>
+        <v>1.696662949115138</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.089139239231605</v>
@@ -11732,7 +11684,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.735508088160306</v>
+        <v>1.696589638205684</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.428661919951864</v>
@@ -11821,7 +11773,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.712752467601959</v>
+        <v>1.678673657041553</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.354495624900396</v>
@@ -11910,7 +11862,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.714971375851066</v>
+        <v>1.679927467141524</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.541504289145786</v>
@@ -11999,7 +11951,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.726746423516137</v>
+        <v>1.692824317116226</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.548458443277848</v>
@@ -12088,7 +12040,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.725489836067768</v>
+        <v>1.700104882964068</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.812032517630324</v>
@@ -12177,7 +12129,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.729054182027035</v>
+        <v>1.705484508304859</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.967264783334204</v>
@@ -12266,7 +12218,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.741176417708607</v>
+        <v>1.718530163726431</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.49267728327395</v>
@@ -12355,7 +12307,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.735086065077619</v>
+        <v>1.71652247943942</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.737101900985633</v>
@@ -12444,7 +12396,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.741097008641675</v>
+        <v>1.723517877442236</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.943004423474004</v>
@@ -12533,7 +12485,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.750848724703112</v>
+        <v>1.728510978227896</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.864995297083294</v>
@@ -12622,7 +12574,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.753169096788158</v>
+        <v>1.730576387270202</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.745598659118462</v>
@@ -12711,7 +12663,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.753682711542817</v>
+        <v>1.732363260613043</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.613124594010182</v>
@@ -12800,7 +12752,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.756167125889131</v>
+        <v>1.73217463749444</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.253062490861192</v>
@@ -12889,7 +12841,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.762704897162477</v>
+        <v>1.737320814569027</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.808137973611079</v>
@@ -12978,7 +12930,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.763242609041565</v>
+        <v>1.739007061532779</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.557742026222612</v>
@@ -13067,7 +13019,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.766230467608173</v>
+        <v>1.743900688402988</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.281985089042142</v>
@@ -13156,7 +13108,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.794897968690112</v>
+        <v>1.765660058235628</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.950161003548652</v>
@@ -13245,7 +13197,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.796344012144018</v>
+        <v>1.762434259631373</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.187389729592996</v>
@@ -13334,7 +13286,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.790041570164505</v>
+        <v>1.756411035923775</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.620016259168543</v>
@@ -13423,7 +13375,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.793502974153808</v>
+        <v>1.753070783677769</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.989081727072305</v>
@@ -13512,7 +13464,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.777567010111028</v>
+        <v>1.73335626541892</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.802764887142503</v>
@@ -13601,7 +13553,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.753925925711423</v>
+        <v>1.709351530090139</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.305523466173108</v>
@@ -13690,7 +13642,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.756357555253917</v>
+        <v>1.705056705435896</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.258443377515892</v>
@@ -13779,7 +13731,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.758649835886852</v>
+        <v>1.712418823869145</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.353675394493876</v>
@@ -13868,7 +13820,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.75954463801501</v>
+        <v>1.71233868473747</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.52846298003005</v>
@@ -13957,7 +13909,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.766935145042222</v>
+        <v>1.72420801358659</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.490949411187722</v>
@@ -14046,7 +13998,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.7627607941871</v>
+        <v>1.722453289920562</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.946197838670235</v>
@@ -14135,7 +14087,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.758412299879521</v>
+        <v>1.721716615138316</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.990168530976598</v>
@@ -14224,7 +14176,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.749428511025993</v>
+        <v>1.712868090577685</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.606467234847623</v>
@@ -14313,7 +14265,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.758551165150471</v>
+        <v>1.72170976463494</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.918848255900866</v>
@@ -14402,7 +14354,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.765532114069347</v>
+        <v>1.724044861943828</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.837140584385938</v>
@@ -14491,7 +14443,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.765722265728</v>
+        <v>1.722449028939053</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.786718776852373</v>
@@ -14580,7 +14532,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.769399190123496</v>
+        <v>1.717347148211317</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.644202084588394</v>
@@ -14669,7 +14621,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.766258904332858</v>
+        <v>1.716201562395936</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.495059333532886</v>
@@ -14758,7 +14710,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.761345866297333</v>
+        <v>1.714810220370387</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.763460883579457</v>
@@ -14847,7 +14799,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.767302212350638</v>
+        <v>1.723831131387775</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.946230474381509</v>
@@ -14936,7 +14888,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.781042643800228</v>
+        <v>1.729840254374253</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.044364667717164</v>
@@ -15025,7 +14977,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.774051731468835</v>
+        <v>1.729277938658875</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.698843033088608</v>
@@ -15114,7 +15066,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.772586075158079</v>
+        <v>1.723362609875593</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.756127456416041</v>
@@ -15203,7 +15155,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.780636027004971</v>
+        <v>1.725508059759159</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.173893602642901</v>
@@ -15292,7 +15244,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.765210443699263</v>
+        <v>1.709211726847018</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.564465153087258</v>
@@ -15381,7 +15333,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.759144525818793</v>
+        <v>1.70445105539747</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.726368173112033</v>
@@ -15470,7 +15422,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.746106958628423</v>
+        <v>1.694091223637276</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.084157335266401</v>
@@ -15559,7 +15511,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.745666921004483</v>
+        <v>1.699553337451736</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.184356384929549</v>
@@ -15648,7 +15600,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.731519208540205</v>
+        <v>1.684861186800524</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.879477157570118</v>
@@ -15737,7 +15689,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.721846583259519</v>
+        <v>1.672563660304068</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.086411547767888</v>
@@ -15826,7 +15778,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.696469552132284</v>
+        <v>1.658867106551066</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.010816541094605</v>
@@ -16112,7 +16064,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.747507368091322</v>
+        <v>1.711481852577696</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.941878889300665</v>
@@ -16201,7 +16153,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.754090924559369</v>
+        <v>1.713388124400317</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.37457440558813</v>
@@ -16290,7 +16242,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.75342167926004</v>
+        <v>1.710295672663266</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.83621231822655</v>
@@ -16379,7 +16331,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.748499420796838</v>
+        <v>1.704319133588363</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.679324798136715</v>
@@ -16468,7 +16420,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.726967748238386</v>
+        <v>1.680861142863121</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.787361580537778</v>
@@ -16557,7 +16509,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.703162613120468</v>
+        <v>1.664052236104676</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.954415029261403</v>
@@ -16646,7 +16598,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.590047792463843</v>
+        <v>1.568048291453058</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.002155102869716</v>
@@ -16735,7 +16687,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.581838399731507</v>
+        <v>1.56343604781526</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.977715804796452</v>
@@ -16824,7 +16776,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.574580950619453</v>
+        <v>1.560881831809893</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.933175341894406</v>
@@ -16913,7 +16865,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.569574730726446</v>
+        <v>1.555647569645494</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.924423770046832</v>
@@ -17002,7 +16954,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564350958420404</v>
+        <v>1.5465144434418</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.920124207672013</v>
@@ -17091,7 +17043,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.548300082932383</v>
+        <v>1.533790596229758</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.906636576248606</v>
@@ -17180,7 +17132,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.545442057787479</v>
+        <v>1.536234264472595</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.909211950525383</v>
@@ -17269,7 +17221,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.542670271890372</v>
+        <v>1.53332849981755</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.864179659381228</v>
@@ -17358,7 +17310,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.535875004357238</v>
+        <v>1.527300254654111</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.850461779576046</v>
@@ -17447,7 +17399,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.539196967189876</v>
+        <v>1.526981408281475</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.865872045361224</v>
@@ -17536,7 +17488,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545288384792396</v>
+        <v>1.530947163542673</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.858158321456753</v>
@@ -17625,7 +17577,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.543455381129231</v>
+        <v>1.529287143357658</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.880331964115013</v>
@@ -17714,7 +17666,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.546184321724489</v>
+        <v>1.527467463477847</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.818649919849641</v>
@@ -17803,7 +17755,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.550215366794643</v>
+        <v>1.530188635193881</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.860568417599181</v>
@@ -17892,7 +17844,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.631200286196495</v>
+        <v>1.597833210712582</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.819287560540019</v>
@@ -17981,7 +17933,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.691686792508275</v>
+        <v>1.627463304035383</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.078015111236328</v>
@@ -18070,7 +18022,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.677130742228464</v>
+        <v>1.613245333353991</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.588522746679708</v>
@@ -18159,7 +18111,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.670379633486433</v>
+        <v>1.606332555443126</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.639614253073175</v>
@@ -18248,7 +18200,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.669107700229614</v>
+        <v>1.601636368118427</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.122515647470884</v>
@@ -18337,7 +18289,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.670032288567358</v>
+        <v>1.608300330955667</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.31455973888568</v>
@@ -18426,7 +18378,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.664925879361632</v>
+        <v>1.607295170519109</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.223148937227221</v>
@@ -18515,7 +18467,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.66807413410492</v>
+        <v>1.608832044408078</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.802362453878239</v>
@@ -18604,7 +18556,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.660631738978017</v>
+        <v>1.598394127640371</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.719234495432226</v>
@@ -18693,7 +18645,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.66424001436824</v>
+        <v>1.601106913965982</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.529544568377707</v>
@@ -18782,7 +18734,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660954299338847</v>
+        <v>1.600242048913922</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.603830716976461</v>
@@ -18871,7 +18823,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.63891619650956</v>
+        <v>1.581911497271186</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.160986115677164</v>
@@ -18960,7 +18912,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.559836504774426</v>
+        <v>1.521776448512826</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.055514411235258</v>
@@ -19049,7 +19001,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.544190689262236</v>
+        <v>1.514294582339241</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.058818137510708</v>
@@ -19138,7 +19090,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545806989562933</v>
+        <v>1.515618049330959</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.062815986973263</v>
@@ -19227,7 +19179,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.545137073436977</v>
+        <v>1.514416393261182</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.048990090775679</v>
@@ -19316,7 +19268,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.537752888472446</v>
+        <v>1.51049721829872</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.010736552244611</v>
@@ -19405,7 +19357,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.540745814304999</v>
+        <v>1.513005172925777</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.026078765611184</v>
@@ -19494,7 +19446,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.544955082249339</v>
+        <v>1.522806782404776</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.07454299906831</v>
@@ -19583,7 +19535,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.555388799704138</v>
+        <v>1.534815718741717</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.070400029631938</v>
@@ -19672,7 +19624,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.562799764376968</v>
+        <v>1.538877629554561</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.08253366243139</v>
@@ -19761,7 +19713,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.567027495782297</v>
+        <v>1.539308319496351</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.099820253596314</v>
@@ -19850,7 +19802,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.561304758838808</v>
+        <v>1.537284145434255</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.047143552763968</v>
@@ -19939,7 +19891,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.565196042243009</v>
+        <v>1.540900146783628</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.05829234276495</v>
@@ -20028,7 +19980,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.543820060811964</v>
+        <v>1.524650637343274</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.121124768077053</v>
@@ -20117,7 +20069,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.55330321582264</v>
+        <v>1.535857771831468</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.082758127163463</v>
@@ -20206,7 +20158,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.623104906599111</v>
+        <v>1.58488224488702</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.837264097440987</v>
@@ -20295,7 +20247,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648865066898301</v>
+        <v>1.613407459436032</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.735110107806485</v>
@@ -20384,7 +20336,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.660977736642262</v>
+        <v>1.619637055102073</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.870206781712113</v>
@@ -20473,7 +20425,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.670006679162993</v>
+        <v>1.625155161971711</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.849244400028996</v>
@@ -20562,7 +20514,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.670123227248069</v>
+        <v>1.623374204236417</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.944632584057918</v>
@@ -20848,7 +20800,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.644786763175237</v>
+        <v>1.596646024781274</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.248576266335647</v>
@@ -20937,7 +20889,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.642640127292716</v>
+        <v>1.601712429290869</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.362923315194269</v>
@@ -21026,7 +20978,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.649206733633476</v>
+        <v>1.602228509324735</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.308583750108811</v>
@@ -21115,7 +21067,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.642860781889489</v>
+        <v>1.585675185139304</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.291486861051006</v>
@@ -21204,7 +21156,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639803178111397</v>
+        <v>1.571466590637591</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.105266743803184</v>
@@ -21293,7 +21245,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.611144387419307</v>
+        <v>1.558621944439534</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.846109905490444</v>
@@ -21382,7 +21334,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.586187006383392</v>
+        <v>1.539530358801739</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.844630443775803</v>
@@ -21471,7 +21423,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.596069279827799</v>
+        <v>1.548752653358064</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.968509084138231</v>
@@ -21560,7 +21512,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.599028040372238</v>
+        <v>1.555045247416365</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.775787615432298</v>
@@ -21649,7 +21601,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605861719936148</v>
+        <v>1.555969432513315</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.833731044687415</v>
@@ -21738,7 +21690,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.608017057813769</v>
+        <v>1.550463242558801</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.968359194849563</v>
@@ -21827,7 +21779,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.608652130307528</v>
+        <v>1.555065621874373</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.951610154856201</v>
@@ -21916,7 +21868,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.619648042524845</v>
+        <v>1.56692219753229</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.80880632309168</v>
@@ -22005,7 +21957,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.630619389658719</v>
+        <v>1.575769300687763</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.962318699802847</v>
@@ -22094,7 +22046,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636736961739496</v>
+        <v>1.585558675102761</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.867222226969361</v>
@@ -22183,7 +22135,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.642188553604519</v>
+        <v>1.581488500796968</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.771992670654921</v>
@@ -22272,7 +22224,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.637266443364229</v>
+        <v>1.578074737414266</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.7689832071482</v>
@@ -22361,7 +22313,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.647603441502748</v>
+        <v>1.58462219691833</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.887975672047252</v>
@@ -22450,7 +22402,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.654986560096955</v>
+        <v>1.599823809909484</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.704732941197687</v>
@@ -22539,7 +22491,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.668265467415997</v>
+        <v>1.612108740159823</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.871466199382809</v>
@@ -22628,7 +22580,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.706330304821167</v>
+        <v>1.633532255788055</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.397598553992506</v>
@@ -22717,7 +22669,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.735564931952478</v>
+        <v>1.655373705960489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.744558664003449</v>
@@ -22806,7 +22758,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.741484592159163</v>
+        <v>1.658537478713471</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.059669500790997</v>
@@ -22895,7 +22847,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.744673534932119</v>
+        <v>1.659220738308351</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.852023508031841</v>
@@ -22984,7 +22936,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.733764448511727</v>
+        <v>1.641510576562705</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.409722693772065</v>
@@ -23073,7 +23025,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.732086921405144</v>
+        <v>1.642278125313012</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.9071221696578</v>
@@ -23162,7 +23114,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.714117117439776</v>
+        <v>1.626396166464791</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.134844119562441</v>
@@ -23251,7 +23203,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.705807703260492</v>
+        <v>1.61414100685249</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.225735294037524</v>
@@ -23340,7 +23292,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.703251282436588</v>
+        <v>1.607576871143114</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.347407778012883</v>
@@ -23429,7 +23381,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.694357816125835</v>
+        <v>1.600947187132513</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.904309071708833</v>
@@ -23518,7 +23470,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.696316713130342</v>
+        <v>1.610051441808755</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.204482011613659</v>
@@ -23607,7 +23559,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.69601108526211</v>
+        <v>1.610167140652559</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.201534089582052</v>
@@ -23696,7 +23648,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.689969362464271</v>
+        <v>1.608457497354101</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.126639554874741</v>
@@ -23785,7 +23737,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.690675093020216</v>
+        <v>1.612894458195064</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.294807645058152</v>
@@ -23874,7 +23826,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.694059892957858</v>
+        <v>1.61286423403205</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.109549722026518</v>
@@ -23963,7 +23915,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.695763216935161</v>
+        <v>1.615005145060986</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.085370908493108</v>
@@ -24052,7 +24004,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.698467115307314</v>
+        <v>1.61542982877425</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.876036891060796</v>
@@ -24141,7 +24093,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.703759397417667</v>
+        <v>1.621493242084023</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.25066733736579</v>
@@ -24230,7 +24182,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706008171715941</v>
+        <v>1.628021262768086</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.240178119113863</v>
@@ -24319,7 +24271,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.712082761594842</v>
+        <v>1.651537259111599</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.185290953458434</v>
@@ -24408,7 +24360,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.715040225296804</v>
+        <v>1.656750028235489</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.956570109388682</v>
@@ -24497,7 +24449,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.719779331460601</v>
+        <v>1.650740629993291</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.211684279422176</v>
@@ -24586,7 +24538,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.720764119570551</v>
+        <v>1.65820319543378</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.986276449280271</v>
@@ -24675,7 +24627,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.720491266449178</v>
+        <v>1.667238212634009</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.549985492942327</v>
@@ -24764,7 +24716,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.723732871407665</v>
+        <v>1.669077947914063</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.837355325117911</v>
@@ -24853,7 +24805,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.719238548135416</v>
+        <v>1.664156816299737</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.644416450177761</v>
@@ -24942,7 +24894,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.731926501160953</v>
+        <v>1.670212952507899</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.904006561248439</v>
@@ -25031,7 +24983,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.731353104808514</v>
+        <v>1.671243270280489</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.641045481454305</v>
@@ -25120,7 +25072,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.721759876166903</v>
+        <v>1.665862762166107</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.978874217419729</v>
@@ -25209,7 +25161,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.727011154982633</v>
+        <v>1.673944047960622</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.044392574678711</v>
@@ -25298,7 +25250,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.716804931432607</v>
+        <v>1.668480433607854</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.932587819796443</v>
@@ -25584,7 +25536,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.698848553319747</v>
+        <v>1.676456595665719</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.979231132072802</v>
@@ -25673,7 +25625,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.745361950839821</v>
+        <v>1.711289733603763</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.901703651789735</v>
@@ -25762,7 +25714,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.740399856597534</v>
+        <v>1.706263796799859</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.634721862220605</v>
@@ -25851,7 +25803,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.689313595597369</v>
+        <v>1.670213020555678</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.662226083328742</v>
@@ -25940,7 +25892,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.672051668669283</v>
+        <v>1.655382921947578</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.599624989590941</v>
@@ -26029,7 +25981,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.651691007461876</v>
+        <v>1.63916188166961</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.580291238054981</v>
@@ -26118,7 +26070,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626954446158253</v>
+        <v>1.608128301213516</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.494746260142548</v>
@@ -26207,7 +26159,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.610859476657443</v>
+        <v>1.596995781979853</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.480506474734812</v>
@@ -26296,7 +26248,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.576409890057437</v>
+        <v>1.567998062765281</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.421097503074834</v>
@@ -26385,7 +26337,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.558893416108221</v>
+        <v>1.554986548988726</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.292829909304769</v>
@@ -26474,7 +26426,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.532340877691881</v>
+        <v>1.528319467047052</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.372499765861331</v>
@@ -26563,7 +26515,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503084297580246</v>
+        <v>1.502599377453453</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.294561105095386</v>
@@ -26652,7 +26604,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.486068376439039</v>
+        <v>1.482249881984448</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.224618451341095</v>
@@ -26741,7 +26693,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.470072761908927</v>
+        <v>1.461453170156961</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.138449893212445</v>
@@ -26830,7 +26782,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.452582477128129</v>
+        <v>1.448262915731507</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.129913670840464</v>
@@ -26919,7 +26871,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.449308460429257</v>
+        <v>1.44174940579013</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.054666844949621</v>
@@ -27008,7 +26960,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.441606921208632</v>
+        <v>1.432766257392555</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.110949134631836</v>
@@ -27097,7 +27049,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.471385672911188</v>
+        <v>1.45594105321695</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.238147606354499</v>
@@ -27186,7 +27138,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.494487038099362</v>
+        <v>1.467975927972244</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.879074722617998</v>
@@ -27275,7 +27227,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.504048210383823</v>
+        <v>1.475782326786234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.930194852218003</v>
@@ -27364,7 +27316,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.516405851407086</v>
+        <v>1.485601909441473</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.669040977002707</v>
@@ -27453,7 +27405,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.52268774611866</v>
+        <v>1.49532406169592</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.711727684493786</v>
@@ -27542,7 +27494,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.54078920630331</v>
+        <v>1.51078495052263</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.57584390202183</v>
@@ -27631,7 +27583,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.581560606315815</v>
+        <v>1.539424902441517</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.482555340199319</v>
@@ -27720,7 +27672,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.576149566377066</v>
+        <v>1.537396811890639</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.079507445039529</v>
@@ -27809,7 +27761,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568483333512895</v>
+        <v>1.534215791745839</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.917300843073947</v>
@@ -27898,7 +27850,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.558942094914275</v>
+        <v>1.531278701634083</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.95336390174419</v>
@@ -27987,7 +27939,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.548977593291645</v>
+        <v>1.526456772246993</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.835945183468743</v>
@@ -28076,7 +28028,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.535024086871932</v>
+        <v>1.512672887406666</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.946421809659384</v>
@@ -28165,7 +28117,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.533088077671465</v>
+        <v>1.512586740776562</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.934960676007401</v>
@@ -28254,7 +28206,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.534273622168305</v>
+        <v>1.517527234182573</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.92160051043865</v>
@@ -28343,7 +28295,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.533567012575626</v>
+        <v>1.516501048781563</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.663477325268588</v>
@@ -28432,7 +28384,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.519502363607073</v>
+        <v>1.507068421814389</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.844580774665853</v>
@@ -28521,7 +28473,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.512767054285341</v>
+        <v>1.512523634551865</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.979042212448295</v>
@@ -28610,7 +28562,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.510155648693185</v>
+        <v>1.505292792789481</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.889481580759467</v>
@@ -28699,7 +28651,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.50854549020123</v>
+        <v>1.499211225687295</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.884587161005532</v>
@@ -28788,7 +28740,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.497901802467814</v>
+        <v>1.488903362639619</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.853603944565514</v>
@@ -28877,7 +28829,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.500089965868804</v>
+        <v>1.491926961617326</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.888131555789366</v>
@@ -28966,7 +28918,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.490558439616086</v>
+        <v>1.484656859033273</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.906188353111421</v>
@@ -29055,7 +29007,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.456926671621317</v>
+        <v>1.457166944064261</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.543640973687272</v>
@@ -29144,7 +29096,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.479083547429718</v>
+        <v>1.473550404634445</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.344261210215342</v>
@@ -29233,7 +29185,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.484442065452946</v>
+        <v>1.476385185139347</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.643228268669807</v>
@@ -29322,7 +29274,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.495194463145459</v>
+        <v>1.485487848345128</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.434822431286337</v>
@@ -29411,7 +29363,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.513408517979036</v>
+        <v>1.501665738400608</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.581032449519246</v>
@@ -29500,7 +29452,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.512793525395704</v>
+        <v>1.499821005976033</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.488989204477867</v>
@@ -29589,7 +29541,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.514270656090038</v>
+        <v>1.502854106808381</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.549747806756346</v>
@@ -29678,7 +29630,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.501967012208943</v>
+        <v>1.494112519343576</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.439124097099265</v>
@@ -29767,7 +29719,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.499601263327434</v>
+        <v>1.492256133259855</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.607602419576043</v>
@@ -29856,7 +29808,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.483781679677054</v>
+        <v>1.477830841239962</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.420133877789833</v>
@@ -29945,7 +29897,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.484469452239817</v>
+        <v>1.478496428641503</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.571165262484307</v>
@@ -30034,7 +29986,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.459738022424757</v>
+        <v>1.459729391088461</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.434340577009227</v>
